--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1571,8 +1571,8 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum}
-Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}</t>
+    <t>Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum|https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityEdqm}</t>
   </si>
   <si>
     <t>Precise amount of medication per dose</t>
@@ -1596,8 +1596,8 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum}
-Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum}Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}</t>
+    <t>Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum|https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityEdqm}</t>
   </si>
   <si>
     <t>Precise amount of medication per unit of time</t>
@@ -1626,7 +1626,7 @@
     <t>MedicationStatement.dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum}
+    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
 </t>
   </si>
   <si>
@@ -1654,7 +1654,7 @@
     <t>MedicationStatement.dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}
+    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum|https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityEdqm}
 </t>
   </si>
   <si>
@@ -2025,7 +2025,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="221.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1571,8 +1571,8 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
-Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum|https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityEdqm}</t>
+    <t xml:space="preserve">Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+</t>
   </si>
   <si>
     <t>Precise amount of medication per dose</t>
@@ -1596,8 +1596,8 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
-Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum|https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityEdqm}</t>
+    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+</t>
   </si>
   <si>
     <t>Precise amount of medication per unit of time</t>
@@ -1626,10 +1626,6 @@
     <t>MedicationStatement.dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
-</t>
-  </si>
-  <si>
     <t>Upper limit on medication per unit of time</t>
   </si>
   <si>
@@ -1654,7 +1650,7 @@
     <t>MedicationStatement.dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum|https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityEdqm}
+    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>
@@ -2025,7 +2021,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="221.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -10546,19 +10542,19 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -10607,7 +10603,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10625,21 +10621,21 @@
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10662,19 +10658,19 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -10723,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10741,7 +10737,7 @@
         <v>19</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>19</v>
@@ -10752,10 +10748,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10778,17 +10774,17 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -10837,7 +10833,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10855,7 +10851,7 @@
         <v>19</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>19</v>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2011,17 +2011,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.41015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2030,26 +2030,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="85.421875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="73.234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
